--- a/algorithm/workers.xlsx
+++ b/algorithm/workers.xlsx
@@ -432,25 +432,21 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Doctor</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>4,1,2,6</t>
+          <t>5,3,2,6,4,1</t>
         </is>
       </c>
     </row>
@@ -465,25 +461,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,5,3,1</t>
+          <t>2,1,6,5</t>
         </is>
       </c>
     </row>
@@ -498,21 +490,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Doctor</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2,3,4,1,6</t>
+          <t>2,4,1,3,5</t>
         </is>
       </c>
     </row>
@@ -527,25 +523,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Doctor</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4,2,3,6</t>
+          <t>5,2,3,6,4,1</t>
         </is>
       </c>
     </row>
@@ -560,12 +552,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -574,7 +566,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,1,3,6,5</t>
+          <t>1,3,4,6</t>
         </is>
       </c>
     </row>
@@ -589,21 +581,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,5,3,1</t>
+          <t>1,2,4,3,5,6</t>
         </is>
       </c>
     </row>
@@ -618,25 +614,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3,2,4,1</t>
+          <t>1,6,5,3,2</t>
         </is>
       </c>
     </row>
@@ -651,7 +647,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,13 +655,17 @@
           <t>Doctor</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,5,2,4</t>
+          <t>3,2,4,5</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5,6,4,3</t>
+          <t>5,1,3,6</t>
         </is>
       </c>
     </row>
@@ -713,25 +713,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,3,5,4,6</t>
+          <t>1,5,4,3,6</t>
         </is>
       </c>
     </row>
@@ -746,25 +746,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3,1,6,2,5,4</t>
+          <t>5,6,1,4,3</t>
         </is>
       </c>
     </row>
@@ -779,25 +779,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Doctor</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3,1,2,5,6,4</t>
+          <t>2,4,6,1,5</t>
         </is>
       </c>
     </row>
@@ -817,16 +817,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4,2,3,6,5,1</t>
+          <t>5,4,2,6</t>
         </is>
       </c>
     </row>
@@ -841,21 +845,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Doctor</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3,2,5,6</t>
+          <t>2,5,3,1,4</t>
         </is>
       </c>
     </row>
@@ -878,17 +886,13 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5,2,6,4</t>
+          <t>2,1,3,4,6</t>
         </is>
       </c>
     </row>
@@ -903,21 +907,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5,1,2,3,4,6</t>
+          <t>6,1,5,3,4</t>
         </is>
       </c>
     </row>
@@ -932,7 +940,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -940,17 +948,13 @@
           <t>Engineer</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1,6,4,2</t>
+          <t>3,4,1,5,6</t>
         </is>
       </c>
     </row>
@@ -965,25 +969,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2,3,6,1,5,4</t>
+          <t>1,4,6,5,3</t>
         </is>
       </c>
     </row>
@@ -998,25 +1002,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,3,6,5,1,4</t>
+          <t>2,1,3,6,4,5</t>
         </is>
       </c>
     </row>
@@ -1031,25 +1035,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6,2,3,1</t>
+          <t>4,6,5,2</t>
         </is>
       </c>
     </row>

--- a/algorithm/workers.xlsx
+++ b/algorithm/workers.xlsx
@@ -432,21 +432,21 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>5,3,2,6,4,1</t>
+          <t>4,5,1,3,6</t>
         </is>
       </c>
     </row>
@@ -461,21 +461,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,1,6,5</t>
+          <t>3,1,6,2</t>
         </is>
       </c>
     </row>
@@ -495,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -504,11 +508,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2,4,1,3,5</t>
+          <t>3,5,6,4</t>
         </is>
       </c>
     </row>
@@ -531,13 +535,17 @@
           <t>Doctor</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5,2,3,6,4,1</t>
+          <t>1,3,4,2,5</t>
         </is>
       </c>
     </row>
@@ -557,16 +565,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,3,4,6</t>
+          <t>1,5,3,2,6</t>
         </is>
       </c>
     </row>
@@ -581,7 +593,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -595,11 +607,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,2,4,3,5,6</t>
+          <t>6,1,2,3</t>
         </is>
       </c>
     </row>
@@ -614,25 +626,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,6,5,3,2</t>
+          <t>4,3,2,1,6,5</t>
         </is>
       </c>
     </row>
@@ -647,25 +655,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,2,4,5</t>
+          <t>3,5,1,6,4</t>
         </is>
       </c>
     </row>
@@ -680,25 +688,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5,1,3,6</t>
+          <t>1,4,2,6,5,3</t>
         </is>
       </c>
     </row>
@@ -713,7 +721,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -723,7 +731,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -731,7 +739,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,5,4,3,6</t>
+          <t>5,1,2,4,3,6</t>
         </is>
       </c>
     </row>
@@ -756,15 +764,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5,6,1,4,3</t>
+          <t>3,1,4,5,2,6</t>
         </is>
       </c>
     </row>
@@ -789,15 +797,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,4,6,1,5</t>
+          <t>4,2,6,5,1</t>
         </is>
       </c>
     </row>
@@ -812,25 +820,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5,4,2,6</t>
+          <t>3,5,2,4</t>
         </is>
       </c>
     </row>
@@ -845,25 +853,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,5,3,1,4</t>
+          <t>2,1,5,4,6,3</t>
         </is>
       </c>
     </row>
@@ -878,7 +886,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -888,11 +896,11 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,1,3,4,6</t>
+          <t>3,1,2,6,5</t>
         </is>
       </c>
     </row>
@@ -907,25 +915,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6,1,5,3,4</t>
+          <t>6,5,1,3,2</t>
         </is>
       </c>
     </row>
@@ -945,16 +953,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,4,1,5,6</t>
+          <t>3,4,1,6,5</t>
         </is>
       </c>
     </row>
@@ -969,7 +981,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -979,15 +991,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1,4,6,5,3</t>
+          <t>3,5,6,1,4</t>
         </is>
       </c>
     </row>
@@ -1007,20 +1019,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,1,3,6,4,5</t>
+          <t>2,3,1,6</t>
         </is>
       </c>
     </row>
@@ -1035,21 +1043,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4,6,5,2</t>
+          <t>5,4,6,2,3</t>
         </is>
       </c>
     </row>

--- a/algorithm/workers.xlsx
+++ b/algorithm/workers.xlsx
@@ -432,21 +432,21 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>4,5,1,3,6</t>
+          <t>3,1,5,2,6,4</t>
         </is>
       </c>
     </row>
@@ -471,15 +471,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,1,6,2</t>
+          <t>1,6,2,3</t>
         </is>
       </c>
     </row>
@@ -494,25 +494,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Engineer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3,5,6,4</t>
+          <t>5,4,6,3</t>
         </is>
       </c>
     </row>
@@ -527,25 +527,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,3,4,2,5</t>
+          <t>5,3,1,4</t>
         </is>
       </c>
     </row>
@@ -560,25 +560,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,5,3,2,6</t>
+          <t>1,2,4,5</t>
         </is>
       </c>
     </row>
@@ -598,16 +594,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -631,16 +623,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4,3,2,1,6,5</t>
+          <t>6,4,5,1</t>
         </is>
       </c>
     </row>
@@ -655,25 +647,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,5,1,6,4</t>
+          <t>4,2,6,3,5</t>
         </is>
       </c>
     </row>
@@ -698,15 +690,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,4,2,6,5,3</t>
+          <t>2,1,6,3</t>
         </is>
       </c>
     </row>
@@ -721,25 +713,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Engineer</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5,1,2,4,3,6</t>
+          <t>2,5,6,3</t>
         </is>
       </c>
     </row>
@@ -754,25 +746,21 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3,1,4,5,2,6</t>
+          <t>2,3,5,4,6,1</t>
         </is>
       </c>
     </row>
@@ -792,20 +780,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4,2,6,5,1</t>
+          <t>5,4,3,1,6</t>
         </is>
       </c>
     </row>
@@ -820,7 +804,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -828,17 +812,13 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3,5,2,4</t>
+          <t>5,3,1,6</t>
         </is>
       </c>
     </row>
@@ -853,7 +833,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -863,15 +843,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,1,5,4,6,3</t>
+          <t>5,2,3,1,4</t>
         </is>
       </c>
     </row>
@@ -891,16 +871,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,1,2,6,5</t>
+          <t>3,2,4,6</t>
         </is>
       </c>
     </row>
@@ -915,7 +895,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -923,17 +903,13 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6,5,1,3,2</t>
+          <t>2,1,4,5,6,3</t>
         </is>
       </c>
     </row>
@@ -948,25 +924,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,4,1,6,5</t>
+          <t>5,2,3,1,6</t>
         </is>
       </c>
     </row>
@@ -981,25 +957,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3,5,6,1,4</t>
+          <t>5,2,6,4,1</t>
         </is>
       </c>
     </row>
@@ -1014,7 +990,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1022,13 +998,17 @@
           <t>Doctor</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,3,1,6</t>
+          <t>4,5,2,1,6</t>
         </is>
       </c>
     </row>
@@ -1043,25 +1023,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Nurse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5,4,6,2,3</t>
+          <t>2,1,4,5,3,6</t>
         </is>
       </c>
     </row>

--- a/algorithm/workers.xlsx
+++ b/algorithm/workers.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -440,13 +440,17 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
       <c r="F1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>3,1,5,2,6,4</t>
+          <t>2,1,3,5,6</t>
         </is>
       </c>
     </row>
@@ -466,20 +470,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,6,2,3</t>
+          <t>1,3,6,4</t>
         </is>
       </c>
     </row>
@@ -494,25 +498,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5,4,6,3</t>
+          <t>4,6,2,3,1,5</t>
         </is>
       </c>
     </row>
@@ -527,25 +531,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5,3,1,4</t>
+          <t>3,2,6,4,5</t>
         </is>
       </c>
     </row>
@@ -560,21 +560,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doctor</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,2,4,5</t>
+          <t>4,6,1,3,2</t>
         </is>
       </c>
     </row>
@@ -589,7 +593,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -597,13 +601,17 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6,1,2,3</t>
+          <t>1,3,5,6,2</t>
         </is>
       </c>
     </row>
@@ -618,21 +626,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6,4,5,1</t>
+          <t>5,4,3,1</t>
         </is>
       </c>
     </row>
@@ -657,15 +669,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4,2,6,3,5</t>
+          <t>1,2,4,3</t>
         </is>
       </c>
     </row>
@@ -680,25 +692,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,1,6,3</t>
+          <t>5,1,6,2,3</t>
         </is>
       </c>
     </row>
@@ -713,25 +725,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,5,6,3</t>
+          <t>4,2,6,3</t>
         </is>
       </c>
     </row>
@@ -746,21 +754,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,3,5,4,6,1</t>
+          <t>5,4,3,1</t>
         </is>
       </c>
     </row>
@@ -775,21 +787,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nurse</t>
+        </is>
+      </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5,4,3,1,6</t>
+          <t>1,3,6,4,2,5</t>
         </is>
       </c>
     </row>
@@ -812,13 +828,17 @@
           <t>Nurse</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5,3,1,6</t>
+          <t>5,4,1,2,6,3</t>
         </is>
       </c>
     </row>
@@ -838,7 +858,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -847,11 +867,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5,2,3,1,4</t>
+          <t>2,5,4,1,3</t>
         </is>
       </c>
     </row>
@@ -866,21 +886,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,2,4,6</t>
+          <t>6,1,5,2,3</t>
         </is>
       </c>
     </row>
@@ -895,21 +919,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,1,4,5,6,3</t>
+          <t>2,3,4,5,1</t>
         </is>
       </c>
     </row>
@@ -924,25 +952,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5,2,3,1,6</t>
+          <t>1,3,2,4,6</t>
         </is>
       </c>
     </row>
@@ -957,25 +985,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Teacher</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5,2,6,4,1</t>
+          <t>4,2,3,1,6</t>
         </is>
       </c>
     </row>
@@ -990,12 +1018,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1004,11 +1032,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4,5,2,1,6</t>
+          <t>2,4,5,6</t>
         </is>
       </c>
     </row>
@@ -1028,16 +1056,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,1,4,5,3,6</t>
+          <t>4,1,5,6</t>
         </is>
       </c>
     </row>

--- a/algorithm/workers.xlsx
+++ b/algorithm/workers.xlsx
@@ -432,25 +432,25 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="F1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2,1,3,5,6</t>
+          <t>2,4,6,1,5,3</t>
         </is>
       </c>
     </row>
@@ -465,25 +465,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,3,6,4</t>
+          <t>3,1,5,2</t>
         </is>
       </c>
     </row>
@@ -498,25 +498,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Customer Service</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,6,2,3,1,5</t>
+          <t>6,3,1,2,5</t>
         </is>
       </c>
     </row>
@@ -531,21 +527,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3,2,6,4,5</t>
+          <t>6,5,4,2,3,1</t>
         </is>
       </c>
     </row>
@@ -560,25 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Stock Clerk</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4,6,1,3,2</t>
+          <t>3,2,4,5,1,6</t>
         </is>
       </c>
     </row>
@@ -593,25 +585,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,3,5,6,2</t>
+          <t>1,4,2,3</t>
         </is>
       </c>
     </row>
@@ -626,25 +618,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doctor</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
+          <t>Stock Clerk</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5,4,3,1</t>
+          <t>5,6,4,3,2,1</t>
         </is>
       </c>
     </row>
@@ -659,25 +647,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+          <t>Customer Service</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,2,4,3</t>
+          <t>4,6,2,3,1,5</t>
         </is>
       </c>
     </row>
@@ -692,25 +676,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Engineer</t>
-        </is>
-      </c>
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5,1,6,2,3</t>
+          <t>3,2,6,4</t>
         </is>
       </c>
     </row>
@@ -725,21 +705,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doctor</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Stock Clerk</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Customer Service</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4,2,6,3</t>
+          <t>4,5,3,2</t>
         </is>
       </c>
     </row>
@@ -754,25 +738,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5,4,3,1</t>
+          <t>2,6,5,1,4,3</t>
         </is>
       </c>
     </row>
@@ -787,25 +771,21 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Doctor</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Nurse</t>
-        </is>
-      </c>
+          <t>Customer Service</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,3,6,4,2,5</t>
+          <t>4,1,3,2</t>
         </is>
       </c>
     </row>
@@ -820,25 +800,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5,4,1,2,6,3</t>
+          <t>6,2,1,5,4,3</t>
         </is>
       </c>
     </row>
@@ -853,25 +833,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nurse</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Doctor</t>
-        </is>
-      </c>
+          <t>Stock Clerk</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,5,4,1,3</t>
+          <t>3,2,6,1</t>
         </is>
       </c>
     </row>
@@ -886,25 +862,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6,1,5,2,3</t>
+          <t>3,1,6,5,4,2</t>
         </is>
       </c>
     </row>
@@ -919,25 +895,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2,3,4,5,1</t>
+          <t>5,1,4,2,3</t>
         </is>
       </c>
     </row>
@@ -952,25 +928,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1,3,2,4,6</t>
+          <t>1,6,3,2,4,5</t>
         </is>
       </c>
     </row>
@@ -985,25 +961,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4,2,3,1,6</t>
+          <t>3,2,6,1,5,4</t>
         </is>
       </c>
     </row>
@@ -1018,25 +994,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,4,5,6</t>
+          <t>2,6,1,3,4</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1027,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Stock Clerk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1069,7 +1045,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4,1,5,6</t>
+          <t>5,4,1,2</t>
         </is>
       </c>
     </row>
